--- a/01. Proiect_vacation_rate_repo/Vacation_rate_v2/02. VacationRateApp_Template_Export.xlsx
+++ b/01. Proiect_vacation_rate_repo/Vacation_rate_v2/02. VacationRateApp_Template_Export.xlsx
@@ -1,40 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcraciun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpopescu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{A0AAB28E-2C6B-4E35-B619-CB2EB6B49CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38D2337-2DA1-41F6-9A24-3B7A4EEE69C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>Employee ID</t>
   </si>
@@ -93,16 +79,52 @@
     <t>Sum of planned days for future period</t>
   </si>
   <si>
-    <t>30118771</t>
+    <t>AM PM</t>
   </si>
   <si>
     <t>RATA Doru Gabriel</t>
   </si>
   <si>
+    <t>Christopher Johnson</t>
+  </si>
+  <si>
+    <t>Ms. Katherine Harmon</t>
+  </si>
+  <si>
+    <t>Lonnie Braun</t>
+  </si>
+  <si>
+    <t>Tina Kim</t>
+  </si>
+  <si>
+    <t>Janice Johnson</t>
+  </si>
+  <si>
+    <t>Carol Johnson</t>
+  </si>
+  <si>
+    <t>Samantha Henry</t>
+  </si>
+  <si>
+    <t>Kenneth Roberts</t>
+  </si>
+  <si>
+    <t>Thomas Rivera</t>
+  </si>
+  <si>
+    <t>Terry Yang</t>
+  </si>
+  <si>
     <t>Floating day</t>
   </si>
   <si>
-    <t/>
+    <t>Sick leave</t>
+  </si>
+  <si>
+    <t>Annual leave</t>
+  </si>
+  <si>
+    <t>Unpaid leave</t>
   </si>
   <si>
     <t>X</t>
@@ -111,82 +133,88 @@
     <t>Approved</t>
   </si>
   <si>
+    <t>Declined</t>
+  </si>
+  <si>
     <t>SAVA Costel</t>
   </si>
   <si>
+    <t>GEORGESCU Ana</t>
+  </si>
+  <si>
+    <t>POPA Ion</t>
+  </si>
+  <si>
     <t>SP1</t>
   </si>
   <si>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
     <t>Engineering</t>
   </si>
   <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
     <t>System Engineering</t>
   </si>
   <si>
+    <t>Product Design</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
     <t>PSA</t>
+  </si>
+  <si>
+    <t>ABC Initiative</t>
+  </si>
+  <si>
+    <t>XYZ Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,90 +224,36 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -302,44 +276,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -389,9 +363,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -447,284 +421,849 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.7109375" style="13" customWidth="1"/>
-    <col min="13" max="15" width="35.140625" customWidth="1"/>
-    <col min="16" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>30118771</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44977</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44977</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>36047504</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10">
-        <v>44977</v>
-      </c>
-      <c r="E2" s="10">
-        <v>44977</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="11">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44980</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44980</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3">
+        <v>25</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="R3">
+        <v>14</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>36860068</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45289</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45291</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4">
+        <v>25</v>
+      </c>
+      <c r="Q4">
+        <v>25</v>
+      </c>
+      <c r="R4">
         <v>0</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>32240429</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45262</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45264</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5">
+        <v>25</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>35932870</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45145</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45145</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6">
+        <v>25</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>37189687</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45306</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45308</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>17</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>31020215</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45233</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45236</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8">
+        <v>25</v>
+      </c>
+      <c r="Q8">
+        <v>14</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>30811675</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45278</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45279</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9">
+        <v>25</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <v>13</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>32482663</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45187</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45187</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10">
+        <v>25</v>
+      </c>
+      <c r="Q10">
+        <v>14</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10">
+        <v>11</v>
+      </c>
+      <c r="T10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>34912560</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45190</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45192</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11">
+        <v>25</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
         <v>22</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="S11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>38127441</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45276</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45281</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12">
         <v>25</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="9">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>10</v>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>22</v>
+      </c>
+      <c r="S12">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>